--- a/TL200-transmission.xlsx
+++ b/TL200-transmission.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20373"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EH842\Documents\DMD_model\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ehemsley\PythonStuff\DMD_model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{372467E6-4CFF-4548-8098-730EBCBE4A9A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D9EEB81-C9E3-4C94-90F1-6CCA2B25281D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9984D164-2002-421E-8467-1EB2E284D1C8}"/>
   </bookViews>
@@ -30,7 +30,7 @@
     <t>Wavelength</t>
   </si>
   <si>
-    <t xml:space="preserve">Transmission </t>
+    <t>Transmission</t>
   </si>
 </sst>
 </file>
